--- a/excels/performance.xlsx
+++ b/excels/performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevdjic/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevdjic/Desktop/spryvm/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8556ECF-0B5C-9A41-8025-9BE3EC744584}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C74E06-7259-DA49-88AB-51326887E696}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="460" windowWidth="27600" windowHeight="17540" xr2:uid="{C83F79E0-237D-6C46-BAB7-923940888B0A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>TLB miss penalty</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>DTRIM-128 (4KB)</t>
+  </si>
+  <si>
+    <t>DTRIM-128 (2MB)</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DTRIM-32 (2MB)</c:v>
+                  <c:v>DTRIM-128 (2MB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3000,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EE4926-3935-7443-9EF6-B81E1AAFB225}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="160" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3616,7 +3619,7 @@
         <v>25</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">

--- a/excels/performance.xlsx
+++ b/excels/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevdjic/Desktop/spryvm/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C74E06-7259-DA49-88AB-51326887E696}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA05E4CA-7CA5-8C4C-B720-6FD6FC585938}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="460" windowWidth="27600" windowHeight="17540" xr2:uid="{C83F79E0-237D-6C46-BAB7-923940888B0A}"/>
+    <workbookView xWindow="1160" yWindow="480" windowWidth="27600" windowHeight="17540" xr2:uid="{C83F79E0-237D-6C46-BAB7-923940888B0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>TLB miss penalty</t>
   </si>
@@ -78,9 +78,6 @@
     <t>DTRIM-32 2MB</t>
   </si>
   <si>
-    <t>8 sockets speedup</t>
-  </si>
-  <si>
     <t>DTRIM-8 (2MB)</t>
   </si>
   <si>
@@ -106,6 +103,21 @@
   </si>
   <si>
     <t>DTRIM-128 (2MB)</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Miss Ratios</t>
+  </si>
+  <si>
+    <t>8 sockets: translation cycles</t>
+  </si>
+  <si>
+    <t>8 sockets translation speedup</t>
+  </si>
+  <si>
+    <t>8 sockets memory access speedup</t>
   </si>
 </sst>
 </file>
@@ -319,16 +331,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0548077782704639</c:v>
+                  <c:v>7.5587571843523467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0737649370548557</c:v>
+                  <c:v>7.6284924470235058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8877385976732883</c:v>
+                  <c:v>6.9441812700127157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9960703402924054</c:v>
+                  <c:v>7.3426873232187679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,16 +402,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.6833572964977188</c:v>
+                  <c:v>17.228064340688686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.882493733151219</c:v>
+                  <c:v>17.960601946949804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9547675589396518</c:v>
+                  <c:v>7.19075209181399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0756630125150668</c:v>
+                  <c:v>7.6354746531807125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -461,16 +473,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3391022924135756</c:v>
+                  <c:v>8.6045548613788316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3692986184896689</c:v>
+                  <c:v>8.7156342037301808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8945576754715416</c:v>
+                  <c:v>6.969265734770576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2154869128910444</c:v>
+                  <c:v>8.1498268581352189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,16 +544,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.7743032059753885</c:v>
+                  <c:v>24.91975822198183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2317611606913879</c:v>
+                  <c:v>26.602549983972892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1596016721228333</c:v>
+                  <c:v>7.9442490081664365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3989744964826403</c:v>
+                  <c:v>8.824799040632902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,16 +615,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.7184077066629362</c:v>
+                  <c:v>9.9998569209390347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7673260670790718</c:v>
+                  <c:v>10.179806603898395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8967125197460479</c:v>
+                  <c:v>6.9771924833517964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4898909568326815</c:v>
+                  <c:v>9.1592417340634213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,16 +688,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>12.916770886798941</c:v>
+                  <c:v>47.515264333583602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.479916443991103</c:v>
+                  <c:v>53.265406918969269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5913485131177421</c:v>
+                  <c:v>13.211032030397904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2913997952212255</c:v>
+                  <c:v>12.107649246707107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,16 +1054,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.0548077782704639</c:v>
+                  <c:v>7.5587571843523467</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0737649370548557</c:v>
+                  <c:v>7.6284924470235058</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8877385976732883</c:v>
+                  <c:v>6.9441812700127157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9960703402924054</c:v>
+                  <c:v>7.3426873232187679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1113,16 +1125,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.3391022924135756</c:v>
+                  <c:v>8.6045548613788316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3692986184896689</c:v>
+                  <c:v>8.7156342037301808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8945576754715416</c:v>
+                  <c:v>6.969265734770576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2154869128910444</c:v>
+                  <c:v>8.1498268581352189</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,16 +1196,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.6833572964977188</c:v>
+                  <c:v>17.228064340688686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.882493733151219</c:v>
+                  <c:v>17.960601946949804</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9547675589396518</c:v>
+                  <c:v>7.19075209181399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0756630125150668</c:v>
+                  <c:v>7.6354746531807125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,16 +1267,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.7743032059753885</c:v>
+                  <c:v>24.91975822198183</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.2317611606913879</c:v>
+                  <c:v>26.602549983972892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1596016721228333</c:v>
+                  <c:v>7.9442490081664365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3989744964826403</c:v>
+                  <c:v>8.824799040632902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,7 +1393,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Speedup Over Conventional 4KB</a:t>
+                  <a:t>Translation Speedup Over Conv.  4KB</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1390,8 +1402,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="7.9365079365079361E-3"/>
-              <c:y val="0.20640456401283172"/>
+              <c:x val="7.936416510645106E-3"/>
+              <c:y val="0.10783736527397572"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2631,16 +2643,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>492918</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2667,16 +2679,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>680244</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>40481</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3001,15 +3013,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EE4926-3935-7443-9EF6-B81E1AAFB225}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="160" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="133" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="42.5" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
@@ -3037,10 +3049,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1.3589743589743499</v>
+        <v>0.35897435897434998</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -3048,16 +3060,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1.1573033707865099</v>
+        <v>0.15730337078650999</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -3083,10 +3098,10 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
         <v>23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3231,7 +3246,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3240,43 +3255,43 @@
       </c>
       <c r="B18">
         <f>B10*$A$4</f>
-        <v>13.85244</v>
+        <v>6.9262199999999998</v>
       </c>
       <c r="C18">
         <f>C10*$A$4</f>
-        <v>7.4385599999999998</v>
+        <v>3.7192799999999999</v>
       </c>
       <c r="D18">
         <f>D10*$B$4</f>
-        <v>7.1490679775280466</v>
+        <v>0.97171797752804745</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:K18" si="0">E10*$B$4</f>
-        <v>3.4041962921348108</v>
+        <v>0.46270629213481129</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>6.741477303370746</v>
+        <v>0.91631730337074657</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>2.9578012359550381</v>
+        <v>0.40203123595503865</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>5.9221180898876042</v>
+        <v>0.80494808988760536</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>2.0448508988763923</v>
+        <v>0.27794089887639239</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>5.0957919101123288</v>
+        <v>0.69263191011232927</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1.0724383146067351</v>
+        <v>0.14576831460673523</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -3285,43 +3300,43 @@
       </c>
       <c r="B19">
         <f t="shared" ref="B19:C21" si="1">B11*$A$4</f>
-        <v>40.952359999999999</v>
+        <v>20.476179999999999</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>21.48676</v>
+        <v>10.74338</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:K21" si="2">D11*$B$4</f>
-        <v>20.980995842696505</v>
+        <v>2.851785842696505</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>9.7233041573033123</v>
+        <v>1.3216141573033131</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>19.747831235954937</v>
+        <v>2.6841712359549388</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>8.3875908988763541</v>
+        <v>1.1400608988763548</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>17.284592022471806</v>
+        <v>2.3493620224718077</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>5.6628474157303028</v>
+        <v>0.76970741573030343</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>14.798530786516764</v>
+        <v>2.0114507865167663</v>
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>2.8282179775280727</v>
+        <v>0.38441797752807311</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -3330,43 +3345,43 @@
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
-        <v>21.923960000000001</v>
+        <v>10.961980000000001</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>19.924320000000002</v>
+        <v>9.9621600000000008</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>11.698913595505548</v>
+        <v>1.5901435955055485</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>11.394681685393191</v>
+        <v>1.5487916853931909</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>11.613874943820155</v>
+        <v>1.5785849438201558</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>11.215635280898809</v>
+        <v>1.5244552808988099</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>11.572073146067346</v>
+        <v>1.572903146067347</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>10.151853595505559</v>
+        <v>1.3798635955055578</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>11.558926179775211</v>
+        <v>1.5711161797752122</v>
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
-        <v>6.1046595505617605</v>
+        <v>0.82975955056176154</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -3375,48 +3390,48 @@
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
-        <v>41.044179999999997</v>
+        <v>20.522089999999999</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>39.639780000000002</v>
+        <v>19.819890000000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>21.52211617977515</v>
+        <v>2.9253361797751531</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>20.859432696629089</v>
+        <v>2.8352626966290901</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>20.562491797752685</v>
+        <v>2.7949017977526869</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>19.774009438202128</v>
+        <v>2.6877294382021297</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>18.526031348314497</v>
+        <v>2.5181013483144974</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>17.10905224719091</v>
+        <v>2.3255022471909097</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>16.484328314606643</v>
+        <v>2.2405883146066441</v>
       </c>
       <c r="K21">
         <f t="shared" si="2"/>
-        <v>12.470128988763969</v>
+        <v>1.694968988763971</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -3428,40 +3443,40 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:K25" si="3">$B18/C18</f>
+        <f>$B18/C18</f>
         <v>1.8622475317803446</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
-        <v>1.9376567747772062</v>
+        <f t="shared" ref="C25:K25" si="3">$B18/D18</f>
+        <v>7.1278088500735626</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>4.0692248070433612</v>
+        <v>14.968934111624353</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>2.0548077782704639</v>
+        <v>7.5587571843523467</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>4.6833572964977188</v>
+        <v>17.228064340688686</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>2.3391022924135756</v>
+        <v>8.6045548613788316</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>6.7743032059753885</v>
+        <v>24.91975822198183</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>2.7184077066629362</v>
+        <v>9.9998569209390347</v>
       </c>
       <c r="K25">
         <f t="shared" si="3"/>
-        <v>12.916770886798941</v>
+        <v>47.515264333583602</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -3478,35 +3493,35 @@
       </c>
       <c r="D26">
         <f t="shared" si="4"/>
-        <v>1.9518787528979724</v>
+        <v>7.1801254124463831</v>
       </c>
       <c r="E26">
         <f t="shared" si="4"/>
-        <v>4.2117740366313745</v>
+        <v>15.493311634751711</v>
       </c>
       <c r="F26">
         <f t="shared" si="4"/>
-        <v>2.0737649370548557</v>
+        <v>7.6284924470235058</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>4.882493733151219</v>
+        <v>17.960601946949804</v>
       </c>
       <c r="H26">
         <f t="shared" si="4"/>
-        <v>2.3692986184896689</v>
+        <v>8.7156342037301808</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
-        <v>7.2317611606913879</v>
+        <v>26.602549983972892</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>2.7673260670790718</v>
+        <v>10.179806603898395</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>14.479916443991103</v>
+        <v>53.265406918969269</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -3523,35 +3538,35 @@
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>1.8740167470270641</v>
+        <v>6.8937044622783885</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>1.9240519924399697</v>
+        <v>7.0777626864758698</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>1.8877385976732883</v>
+        <v>6.9441812700127157</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>1.9547675589396518</v>
+        <v>7.19075209181399</v>
       </c>
       <c r="H27">
         <f t="shared" si="4"/>
-        <v>1.8945576754715416</v>
+        <v>6.969265734770576</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
-        <v>2.1596016721228333</v>
+        <v>7.9442490081664365</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>1.8967125197460479</v>
+        <v>6.9771924833517964</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>3.5913485131177421</v>
+        <v>13.211032030397904</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -3568,58 +3583,102 @@
       </c>
       <c r="D28">
         <f t="shared" si="4"/>
-        <v>1.9070699022882425</v>
+        <v>7.0152928548462983</v>
       </c>
       <c r="E28">
         <f t="shared" si="4"/>
-        <v>1.9676556211728995</v>
+        <v>7.238161749314866</v>
       </c>
       <c r="F28">
         <f t="shared" si="4"/>
-        <v>1.9960703402924054</v>
+        <v>7.3426873232187679</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>2.0756630125150668</v>
+        <v>7.6354746531807125</v>
       </c>
       <c r="H28">
         <f t="shared" si="4"/>
-        <v>2.2154869128910444</v>
+        <v>8.1498268581352189</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>2.3989744964826403</v>
+        <v>8.824799040632902</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>2.4898909568326815</v>
+        <v>9.1592417340634213</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>3.2913997952212255</v>
+        <v>12.107649246707107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <f>AVERAGE(C25:C28)</f>
+        <v>1.4759932471135246</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:K29" si="5">AVERAGE(D25:D28)</f>
+        <v>7.0542328949111583</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>11.194542545541701</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>7.3685295561518345</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>12.503723258158299</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>8.1098204145037016</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>17.072839063688516</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>9.0790244355631629</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>31.524838132414473</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
       <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
         <v>20</v>
       </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>21</v>
       </c>
-      <c r="F36" t="s">
-        <v>22</v>
-      </c>
       <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
         <v>25</v>
-      </c>
-      <c r="H36" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3631,28 +3690,28 @@
         <v>1.8622475317803446</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:H37" si="5">F25</f>
-        <v>2.0548077782704639</v>
+        <f t="shared" ref="C37:H37" si="6">F25</f>
+        <v>7.5587571843523467</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
-        <v>4.6833572964977188</v>
+        <f t="shared" si="6"/>
+        <v>17.228064340688686</v>
       </c>
       <c r="E37">
-        <f t="shared" si="5"/>
-        <v>2.3391022924135756</v>
+        <f t="shared" si="6"/>
+        <v>8.6045548613788316</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
-        <v>6.7743032059753885</v>
+        <f t="shared" si="6"/>
+        <v>24.91975822198183</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
-        <v>2.7184077066629362</v>
+        <f t="shared" si="6"/>
+        <v>9.9998569209390347</v>
       </c>
       <c r="H37">
-        <f t="shared" si="5"/>
-        <v>12.916770886798941</v>
+        <f t="shared" si="6"/>
+        <v>47.515264333583602</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3660,32 +3719,32 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:B40" si="6">C26</f>
+        <f t="shared" ref="B38:B40" si="7">C26</f>
         <v>1.9059346313729943</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:C40" si="7">F26</f>
-        <v>2.0737649370548557</v>
+        <f t="shared" ref="C38:C40" si="8">F26</f>
+        <v>7.6284924470235058</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D40" si="8">G26</f>
-        <v>4.882493733151219</v>
+        <f t="shared" ref="D38:D40" si="9">G26</f>
+        <v>17.960601946949804</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:E40" si="9">H26</f>
-        <v>2.3692986184896689</v>
+        <f t="shared" ref="E38:E40" si="10">H26</f>
+        <v>8.7156342037301808</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:F40" si="10">I26</f>
-        <v>7.2317611606913879</v>
+        <f t="shared" ref="F38:F40" si="11">I26</f>
+        <v>26.602549983972892</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G40" si="11">J26</f>
-        <v>2.7673260670790718</v>
+        <f t="shared" ref="G38:G40" si="12">J26</f>
+        <v>10.179806603898395</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H40" si="12">K26</f>
-        <v>14.479916443991103</v>
+        <f t="shared" ref="H38:H40" si="13">K26</f>
+        <v>53.265406918969269</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3693,32 +3752,32 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1003617689336449</v>
       </c>
       <c r="C39">
-        <f t="shared" si="7"/>
-        <v>1.8877385976732883</v>
+        <f t="shared" si="8"/>
+        <v>6.9441812700127157</v>
       </c>
       <c r="D39">
-        <f t="shared" si="8"/>
-        <v>1.9547675589396518</v>
+        <f t="shared" si="9"/>
+        <v>7.19075209181399</v>
       </c>
       <c r="E39">
-        <f t="shared" si="9"/>
-        <v>1.8945576754715416</v>
+        <f t="shared" si="10"/>
+        <v>6.969265734770576</v>
       </c>
       <c r="F39">
-        <f t="shared" si="10"/>
-        <v>2.1596016721228333</v>
+        <f t="shared" si="11"/>
+        <v>7.9442490081664365</v>
       </c>
       <c r="G39">
-        <f t="shared" si="11"/>
-        <v>1.8967125197460479</v>
+        <f t="shared" si="12"/>
+        <v>6.9771924833517964</v>
       </c>
       <c r="H39">
-        <f t="shared" si="12"/>
-        <v>3.5913485131177421</v>
+        <f t="shared" si="13"/>
+        <v>13.211032030397904</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3726,49 +3785,52 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.035429056367114</v>
       </c>
       <c r="C40">
-        <f t="shared" si="7"/>
-        <v>1.9960703402924054</v>
+        <f t="shared" si="8"/>
+        <v>7.3426873232187679</v>
       </c>
       <c r="D40">
-        <f t="shared" si="8"/>
-        <v>2.0756630125150668</v>
+        <f t="shared" si="9"/>
+        <v>7.6354746531807125</v>
       </c>
       <c r="E40">
-        <f t="shared" si="9"/>
-        <v>2.2154869128910444</v>
+        <f t="shared" si="10"/>
+        <v>8.1498268581352189</v>
       </c>
       <c r="F40">
-        <f t="shared" si="10"/>
-        <v>2.3989744964826403</v>
+        <f t="shared" si="11"/>
+        <v>8.824799040632902</v>
       </c>
       <c r="G40">
-        <f t="shared" si="11"/>
-        <v>2.4898909568326815</v>
+        <f t="shared" si="12"/>
+        <v>9.1592417340634213</v>
       </c>
       <c r="H40">
-        <f t="shared" si="12"/>
-        <v>3.2913997952212255</v>
+        <f t="shared" si="13"/>
+        <v>12.107649246707107</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
       <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
         <v>20</v>
       </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
         <v>21</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3781,19 +3843,19 @@
       </c>
       <c r="C46">
         <f>F25</f>
-        <v>2.0548077782704639</v>
+        <v>7.5587571843523467</v>
       </c>
       <c r="D46">
         <f>H25</f>
-        <v>2.3391022924135756</v>
+        <v>8.6045548613788316</v>
       </c>
       <c r="E46">
         <f>G25</f>
-        <v>4.6833572964977188</v>
+        <v>17.228064340688686</v>
       </c>
       <c r="F46">
         <f>I25</f>
-        <v>6.7743032059753885</v>
+        <v>24.91975822198183</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3801,24 +3863,24 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:B49" si="13">C26</f>
+        <f t="shared" ref="B47:B49" si="14">C26</f>
         <v>1.9059346313729943</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:C49" si="14">F26</f>
-        <v>2.0737649370548557</v>
+        <f t="shared" ref="C47:C49" si="15">F26</f>
+        <v>7.6284924470235058</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:D49" si="15">H26</f>
-        <v>2.3692986184896689</v>
+        <f t="shared" ref="D47:D49" si="16">H26</f>
+        <v>8.7156342037301808</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E49" si="16">G26</f>
-        <v>4.882493733151219</v>
+        <f t="shared" ref="E47:E49" si="17">G26</f>
+        <v>17.960601946949804</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F49" si="17">I26</f>
-        <v>7.2317611606913879</v>
+        <f t="shared" ref="F47:F49" si="18">I26</f>
+        <v>26.602549983972892</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -3826,49 +3888,252 @@
         <v>5</v>
       </c>
       <c r="B48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1003617689336449</v>
       </c>
       <c r="C48">
-        <f t="shared" si="14"/>
-        <v>1.8877385976732883</v>
+        <f t="shared" si="15"/>
+        <v>6.9441812700127157</v>
       </c>
       <c r="D48">
-        <f t="shared" si="15"/>
-        <v>1.8945576754715416</v>
+        <f t="shared" si="16"/>
+        <v>6.969265734770576</v>
       </c>
       <c r="E48">
-        <f t="shared" si="16"/>
-        <v>1.9547675589396518</v>
+        <f t="shared" si="17"/>
+        <v>7.19075209181399</v>
       </c>
       <c r="F48">
-        <f t="shared" si="17"/>
-        <v>2.1596016721228333</v>
+        <f t="shared" si="18"/>
+        <v>7.9442490081664365</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
       <c r="B49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.035429056367114</v>
       </c>
       <c r="C49">
-        <f t="shared" si="14"/>
-        <v>1.9960703402924054</v>
+        <f t="shared" si="15"/>
+        <v>7.3426873232187679</v>
       </c>
       <c r="D49">
-        <f t="shared" si="15"/>
-        <v>2.2154869128910444</v>
+        <f t="shared" si="16"/>
+        <v>8.1498268581352189</v>
       </c>
       <c r="E49">
-        <f t="shared" si="16"/>
-        <v>2.0756630125150668</v>
+        <f t="shared" si="17"/>
+        <v>7.6354746531807125</v>
       </c>
       <c r="F49">
-        <f t="shared" si="17"/>
-        <v>2.3989744964826403</v>
+        <f t="shared" si="18"/>
+        <v>8.824799040632902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <f>(B10*$A$4+100)/(B10*$A$4+100)</f>
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <f>(B10*$A$4+100)/(C10*$A$4+100)</f>
+        <v>1.0309194201888019</v>
+      </c>
+      <c r="D57">
+        <f>($B$10*$A$4+100)/(D10*$B$4+100)</f>
+        <v>1.0589719789040053</v>
+      </c>
+      <c r="E57">
+        <f>($B$10*$A$4+100)/(E10*$B$4+100)</f>
+        <v>1.0643374436785524</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57:K57" si="19">($B$10*$A$4+100)/(F10*$B$4+100)</f>
+        <v>1.0595533295033202</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="19"/>
+        <v>1.0649806451496231</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="19"/>
+        <v>1.0607239230424887</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="19"/>
+        <v>1.0662985203079505</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="19"/>
+        <v>1.0619070926207625</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="19"/>
+        <v>1.0677058232165393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58:B60" si="20">(B11*$A$4+100)/(B11*$A$4+100)</f>
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:C60" si="21">(B11*$A$4+100)/(C11*$A$4+100)</f>
+        <v>1.0878860659662004</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ref="D58:K60" si="22">($B$10*$A$4+100)/(D11*$B$4+100)</f>
+        <v>1.03961461751899</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="22"/>
+        <v>1.0553150074572979</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="22"/>
+        <v>1.0413116132017795</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="22"/>
+        <v>1.0572093693606617</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="22"/>
+        <v>1.0447179922481911</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="22"/>
+        <v>1.0610948740663768</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="22"/>
+        <v>1.0481786032410083</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="21"/>
+        <v>1.0090924005130493</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="22"/>
+        <v>1.0525255326514817</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="22"/>
+        <v>1.0529541339227997</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="22"/>
+        <v>1.0526452997857516</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="22"/>
+        <v>1.053206537323008</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="22"/>
+        <v>1.0527041827901118</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="22"/>
+        <v>1.0547086591734212</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="22"/>
+        <v>1.0527227032805915</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="21"/>
+        <v>1.0058604627328567</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="22"/>
+        <v>1.038871710005753</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="22"/>
+        <v>1.0397816585098782</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="22"/>
+        <v>1.0401899134100601</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="22"/>
+        <v>1.0412755310199804</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="22"/>
+        <v>1.0429984421649452</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="22"/>
+        <v>1.0449615946344928</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="22"/>
+        <v>1.0458294671679227</v>
       </c>
     </row>
   </sheetData>

--- a/excels/performance.xlsx
+++ b/excels/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevdjic/Desktop/spryvm/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA05E4CA-7CA5-8C4C-B720-6FD6FC585938}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2D946E-5458-EF4B-BD78-A92E954A8E6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="480" windowWidth="27600" windowHeight="17540" xr2:uid="{C83F79E0-237D-6C46-BAB7-923940888B0A}"/>
+    <workbookView xWindow="1160" yWindow="480" windowWidth="46920" windowHeight="19620" xr2:uid="{C83F79E0-237D-6C46-BAB7-923940888B0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3015,8 +3015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16EE4926-3935-7443-9EF6-B81E1AAFB225}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="133" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="133" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3447,7 +3447,7 @@
         <v>1.8622475317803446</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="C25:K25" si="3">$B18/D18</f>
+        <f t="shared" ref="D25:K25" si="3">$B18/D18</f>
         <v>7.1278088500735626</v>
       </c>
       <c r="E25">
@@ -3655,6 +3655,36 @@
         <v>31.524838132414473</v>
       </c>
     </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f>K25/C25</f>
+        <v>25.515009966563408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f t="shared" ref="C31:C33" si="6">K26/C26</f>
+        <v>27.947132101061626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f t="shared" si="6"/>
+        <v>12.006080548582354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f t="shared" si="6"/>
+        <v>11.693364380933799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f>AVERAGE(C30:C33)</f>
+        <v>19.290396749285296</v>
+      </c>
+    </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>29</v>
@@ -3690,27 +3720,27 @@
         <v>1.8622475317803446</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:H37" si="6">F25</f>
+        <f t="shared" ref="C37:H37" si="7">F25</f>
         <v>7.5587571843523467</v>
       </c>
       <c r="D37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.228064340688686</v>
       </c>
       <c r="E37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.6045548613788316</v>
       </c>
       <c r="F37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24.91975822198183</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9998569209390347</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47.515264333583602</v>
       </c>
     </row>
@@ -3719,31 +3749,31 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38:B40" si="7">C26</f>
+        <f t="shared" ref="B38:B40" si="8">C26</f>
         <v>1.9059346313729943</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:C40" si="8">F26</f>
+        <f t="shared" ref="C38:C40" si="9">F26</f>
         <v>7.6284924470235058</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D40" si="9">G26</f>
+        <f t="shared" ref="D38:D40" si="10">G26</f>
         <v>17.960601946949804</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:E40" si="10">H26</f>
+        <f t="shared" ref="E38:E40" si="11">H26</f>
         <v>8.7156342037301808</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:F40" si="11">I26</f>
+        <f t="shared" ref="F38:F40" si="12">I26</f>
         <v>26.602549983972892</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G40" si="12">J26</f>
+        <f t="shared" ref="G38:G40" si="13">J26</f>
         <v>10.179806603898395</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H40" si="13">K26</f>
+        <f t="shared" ref="H38:H40" si="14">K26</f>
         <v>53.265406918969269</v>
       </c>
     </row>
@@ -3752,31 +3782,31 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1003617689336449</v>
       </c>
       <c r="C39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.9441812700127157</v>
       </c>
       <c r="D39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.19075209181399</v>
       </c>
       <c r="E39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.969265734770576</v>
       </c>
       <c r="F39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.9442490081664365</v>
       </c>
       <c r="G39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.9771924833517964</v>
       </c>
       <c r="H39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13.211032030397904</v>
       </c>
     </row>
@@ -3785,31 +3815,31 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.035429056367114</v>
       </c>
       <c r="C40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.3426873232187679</v>
       </c>
       <c r="D40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.6354746531807125</v>
       </c>
       <c r="E40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.1498268581352189</v>
       </c>
       <c r="F40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.824799040632902</v>
       </c>
       <c r="G40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.1592417340634213</v>
       </c>
       <c r="H40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12.107649246707107</v>
       </c>
     </row>
@@ -3863,23 +3893,23 @@
         <v>4</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:B49" si="14">C26</f>
+        <f t="shared" ref="B47:B49" si="15">C26</f>
         <v>1.9059346313729943</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:C49" si="15">F26</f>
+        <f t="shared" ref="C47:C49" si="16">F26</f>
         <v>7.6284924470235058</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:D49" si="16">H26</f>
+        <f t="shared" ref="D47:D49" si="17">H26</f>
         <v>8.7156342037301808</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E49" si="17">G26</f>
+        <f t="shared" ref="E47:E49" si="18">G26</f>
         <v>17.960601946949804</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F49" si="18">I26</f>
+        <f t="shared" ref="F47:F49" si="19">I26</f>
         <v>26.602549983972892</v>
       </c>
     </row>
@@ -3888,23 +3918,23 @@
         <v>5</v>
       </c>
       <c r="B48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1003617689336449</v>
       </c>
       <c r="C48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.9441812700127157</v>
       </c>
       <c r="D48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.969265734770576</v>
       </c>
       <c r="E48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.19075209181399</v>
       </c>
       <c r="F48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.9442490081664365</v>
       </c>
     </row>
@@ -3913,23 +3943,23 @@
         <v>6</v>
       </c>
       <c r="B49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.035429056367114</v>
       </c>
       <c r="C49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.3426873232187679</v>
       </c>
       <c r="D49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.1498268581352189</v>
       </c>
       <c r="E49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.6354746531807125</v>
       </c>
       <c r="F49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.824799040632902</v>
       </c>
     </row>
@@ -3989,27 +4019,27 @@
         <v>1.0643374436785524</v>
       </c>
       <c r="F57">
-        <f t="shared" ref="F57:K57" si="19">($B$10*$A$4+100)/(F10*$B$4+100)</f>
+        <f t="shared" ref="F57:K57" si="20">($B$10*$A$4+100)/(F10*$B$4+100)</f>
         <v>1.0595533295033202</v>
       </c>
       <c r="G57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0649806451496231</v>
       </c>
       <c r="H57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0607239230424887</v>
       </c>
       <c r="I57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0662985203079505</v>
       </c>
       <c r="J57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0619070926207625</v>
       </c>
       <c r="K57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0677058232165393</v>
       </c>
     </row>
@@ -4018,39 +4048,39 @@
         <v>4</v>
       </c>
       <c r="B58">
-        <f t="shared" ref="B58:B60" si="20">(B11*$A$4+100)/(B11*$A$4+100)</f>
+        <f t="shared" ref="B58:B60" si="21">(B11*$A$4+100)/(B11*$A$4+100)</f>
         <v>1</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:C60" si="21">(B11*$A$4+100)/(C11*$A$4+100)</f>
+        <f t="shared" ref="C58:C60" si="22">(B11*$A$4+100)/(C11*$A$4+100)</f>
         <v>1.0878860659662004</v>
       </c>
       <c r="D58">
-        <f t="shared" ref="D58:K60" si="22">($B$10*$A$4+100)/(D11*$B$4+100)</f>
+        <f t="shared" ref="D58:J60" si="23">($B$10*$A$4+100)/(D11*$B$4+100)</f>
         <v>1.03961461751899</v>
       </c>
       <c r="E58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0553150074572979</v>
       </c>
       <c r="F58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0413116132017795</v>
       </c>
       <c r="G58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0572093693606617</v>
       </c>
       <c r="H58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0447179922481911</v>
       </c>
       <c r="I58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0610948740663768</v>
       </c>
       <c r="J58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0481786032410083</v>
       </c>
     </row>
@@ -4059,39 +4089,39 @@
         <v>5</v>
       </c>
       <c r="B59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C59">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0090924005130493</v>
       </c>
       <c r="D59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0525255326514817</v>
       </c>
       <c r="E59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0529541339227997</v>
       </c>
       <c r="F59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0526452997857516</v>
       </c>
       <c r="G59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.053206537323008</v>
       </c>
       <c r="H59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0527041827901118</v>
       </c>
       <c r="I59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0547086591734212</v>
       </c>
       <c r="J59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0527227032805915</v>
       </c>
     </row>
@@ -4100,39 +4130,39 @@
         <v>6</v>
       </c>
       <c r="B60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="C60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0058604627328567</v>
       </c>
       <c r="D60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.038871710005753</v>
       </c>
       <c r="E60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0397816585098782</v>
       </c>
       <c r="F60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0401899134100601</v>
       </c>
       <c r="G60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0412755310199804</v>
       </c>
       <c r="H60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0429984421649452</v>
       </c>
       <c r="I60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0449615946344928</v>
       </c>
       <c r="J60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0458294671679227</v>
       </c>
     </row>
